--- a/medicine/Enfance/Langelot_et_les_Crocodiles/Langelot_et_les_Crocodiles.xlsx
+++ b/medicine/Enfance/Langelot_et_les_Crocodiles/Langelot_et_les_Crocodiles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot et les Crocodiles est le onzième roman de la série Langelot, écrite par le Lieutenant X (pseudonyme de Vladimir Volkoff). Ce roman a été édité pour la première fois en 1969, dans la Bibliothèque verte, où il porte le numéro 386.
@@ -512,7 +524,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Langelot : orphelin, agent peu expérimenté du Service National d'Information Fonctionnelle (SNIF), 18 ans, blond, 1,68 m, mince.
 Capitaine Montferrand : chef de la section Protection du Service National d'Information Fonctionnelle, 45 ans, cheveux gris-fer coupés en brosse.
@@ -547,11 +561,48 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est divisé formellement en deux parties : la première partie comporte 16 chapitres (p. 7 à 129), la seconde partie 16 autres chapitres (p. 131 à 250).
-Première partie
-Langelot se présente au Lycée Janson-de-Sailly pour rencontrer Noël Vachette, élève en seconde. Le père de Vachette dirige un complexe atomique construit par des ingénieurs français — à des fins pacifiques — en Côte d'Ébène. Or ce pays vient apparemment d'être victime d'un coup d'État et le président Andronymos a été renversé : plus aucune communication ne passe et les aéroports sont bloqués. Langelot demande donc au jeune Noël d'emprunter son identité afin de se rendre compte directement de la situation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Langelot_et_les_Crocodiles</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Langelot_et_les_Crocodiles</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Résumé détaillé</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Première partie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Langelot se présente au Lycée Janson-de-Sailly pour rencontrer Noël Vachette, élève en seconde. Le père de Vachette dirige un complexe atomique construit par des ingénieurs français — à des fins pacifiques — en Côte d'Ébène. Or ce pays vient apparemment d'être victime d'un coup d'État et le président Andronymos a été renversé : plus aucune communication ne passe et les aéroports sont bloqués. Langelot demande donc au jeune Noël d'emprunter son identité afin de se rendre compte directement de la situation.
 Pour Langelot, c'est l'occasion de se faire passer pour un garçon de quinze ans, alors qu'il en a dix-huit : short et chemisette forment sa tenue. Pour une fois son physique ne le desservira pas. Aucun agent français n'a réussi à entrer en Côte d'Ébène sans être arrêté et peut-être liquidé.
 Sur place, tous les étrangers sont reconduits à l'avion. Noël Vachette possède un passeport ébénois. Langelot croit donc en ses chances. Alors qu'il attend son tour, un autre « citoyen ébénois » lui demande le service de passer une carte postale, dans le cas où l'homme serait renvoyé en France.
 Remarquant que l'homme a abandonné derrière lui un paquet de cigarettes, le jeune agent secret découvre un émetteur miniaturisé caché dans l'une des cigarettes : une technologie des services américains, selon toutes certitudes. Il est trop tard pour se débarrasser de la carte postale : le moment est venu pour Noël Vachette de franchir à son tour la douane.
@@ -563,8 +614,43 @@
 Langelot, qui désire en avoir le cœur net, reprend contact avec un de ses amis, Sosthène Valdombreuse, devenu essayeur de voitures professionnel. Celui-ci accepte avec empressement de partir faire une reconnaissance du côté de la frontière.
 Sur ces entrefaites, le chauffeur du colonel Chibani s'arrête à la station-service pour faire le plein. Langelot aperçoit la clé de l'appartement du colonel sur un siège de la voiture, la subtilise, en fait faire une copie. Il part en reconnaissance avec Sophie au domicile de Chibani. Il découvre un poste émetteur en parfait état de marche et l'emporte avant le retour du propriétaire. Il contacte le commandant d'un porte-avions français qui croise au large des côtes du pays ; cet officier n'a pas le droit d'ordonner un coup de main militaire contre la capitale tant qu'une attaque extérieure n'est pas prouvée. Langelot doit donc continuer seul sa mission de renseignement.
 Malheureusement, Sophie commet au volant de sa voiture un excès de vitesse et se voit prise en chasse par les forces de l'ordre. Langelot saute de la voiture, gêne les policiers pour permettre à son alliée de prendre de l'avance. Il se fait jeter dans l'un des cachots de la prison d'État.
-Seconde partie
-Interrogé dans les bureaux du palais présidentiel par les sbires de Damba Damba, Langelot est immédiatement démasqué par Chibani lui-même et condamné à une mort atroce : lorsque le pays de Chibani se sera définitivement rendu maître de la Côte d'Ébène, de ses réserves d'uranium et du complexe atomique, la prison où croupissent l'ancien président et tous ses partisans sera noyée, et ses occupants, dévorés par des crocodiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Langelot_et_les_Crocodiles</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Langelot_et_les_Crocodiles</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Résumé détaillé</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Seconde partie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Interrogé dans les bureaux du palais présidentiel par les sbires de Damba Damba, Langelot est immédiatement démasqué par Chibani lui-même et condamné à une mort atroce : lorsque le pays de Chibani se sera définitivement rendu maître de la Côte d'Ébène, de ses réserves d'uranium et du complexe atomique, la prison où croupissent l'ancien président et tous ses partisans sera noyée, et ses occupants, dévorés par des crocodiles.
 Entre-temps Sophie, au désespoir, a tenté de reprendre contact avec le commandant du porte-avions. Mal camouflée, elle est repérée par des policiers qui lui tirent dessus et détruisent le poste radio avant qu'elle ne parvienne à les mettre en fuite à coups de pistolet.
 Dans sa prison, Langelot entre en contact avec le lieutenant Rigobert Naboswendé, un officier de parachutistes écroué pour être resté fidèle à l'ancien président, dont il est le futur gendre. À eux deux ils montent un périlleux stratagème pour quitter la prison : Langelot ameute tous les gardiens en clamant qu'il a avalé une bombe à retardement pour faire sauter tout le palais. Il obtient une entrevue avec le chef du nouveau régime, Damba-Damba, un ministricule cruel, fanfaron et incompétent. Ce personnage, arrogant et indécis, demande l'aide du directeur du complexe atomique pour évaluer le danger. L'expert, Vachette, réalisant qu'il doit sauver l'agent secret, confirme ses dires en précisant que la bombe est radioactive. Au grand désespoir du savant, Damba-Damba ordonne séance tenante la noyade du prisonnier dans le fleuve qui longe les fondations du palais présidentiel.
 Le gardien chargé de noyer Langelot saute avec lui dans le fleuve. En fait Langelot avait avalé une montre de petit format dont le bruit d'horlogerie évoquait celui d'une bombe. Une fois sous l'eau, le gardien, qui n'était autre que le lieutenant parachutiste déguisé, glisse une grenade étanche dans la gueule d'un des nombreux crocodiles venus les prendre en chasse, et profite de l'explosion qui disperse les reptiles pour remonter à la surface avec Langelot, à l'abri des regards.
@@ -577,62 +663,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Langelot_et_les_Crocodiles</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Langelot_et_les_Crocodiles</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1969 - Hachette, Bibliothèque verte (français, version originale). Illustré par Maurice Paulin.
 1974 - Hachette, Bibliothèque verte. Illustré par Maurice Paulin.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Langelot_et_les_Crocodiles</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Langelot_et_les_Crocodiles</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Remarques autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le colonel Chibani, personnage déjà essentiel dans Langelot et l'Inconnue, sera de nouveau présent dans Langelot et l'Avion détourné et dans Langelot kidnappé.
 Le véhicule conduit par Sosthène est une Alpine A110, célèbre voiture de rallye française.</t>
